--- a/pred_ohlcv/54_21/2019-11-18 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 STRAT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>11962.7697</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12482.5465</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4811.595399999997</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>699.5223999999967</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>700.9223999999966</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1470.922399999997</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1600.922399999997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1337.837899999997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-229.5811000000033</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1082.581100000003</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1075.860669900003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1082.580669900003</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1081.180669900003</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1662.719130099997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>9802.656230099998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>9804.056230099997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7920.730430099997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8164.723930099996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21768.2009301</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>21768.2009301</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21972.2009301</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>26812.8350301</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21464.5841301</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>100861.46152329</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>93581.56102328998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>93670.56102328998</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>94090.56102328998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>82439.53392328997</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>74691.84272328997</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>71582.92162328996</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>70168.72172328996</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>78235.39542328996</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-18 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 STRAT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>11592.7697</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>11962.7697</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>11962.7697</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,7 +990,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11001.5465</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>11221.5465</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>11792.5465</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>11742.5465</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12482.5465</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4811.595399999997</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>699.5223999999967</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>700.9223999999966</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1470.922399999997</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1600.922399999997</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1337.837899999997</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-229.5811000000033</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1082.581100000003</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1075.860669900003</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1082.580669900003</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1081.180669900003</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1662.719130099997</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>9802.656230099998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>9804.056230099997</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7920.730430099997</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8164.723930099996</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10002.8076301</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21768.2009301</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>21768.2009301</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21972.2009301</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>26812.8350301</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21464.5841301</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>103451.07042329</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>100861.46152329</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>93581.56102328998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>93670.56102328998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>94090.56102328998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>82439.53392328997</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>74691.84272328997</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>71582.92162328996</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>70168.72172328996</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>78235.39542328996</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
